--- a/03 Stimuli/Stimuli_Wei/Stimuli 2.0.xlsx
+++ b/03 Stimuli/Stimuli_Wei/Stimuli 2.0.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/verawei/Desktop/Wei_Experiment/Stimuli_Wei/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/verawei/Desktop/Masterarbeit_WeiH/03 Stimuli/Stimuli_Wei/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3620" yWindow="460" windowWidth="17660" windowHeight="16000"/>
+    <workbookView xWindow="12680" yWindow="500" windowWidth="17660" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Emo_Stimuli" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="ST_Kontrolle" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Emo_Stimuli!$B$54:$E$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Emo_Stimuli!$B$55:$E$57</definedName>
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="537">
   <si>
     <t>Valence</t>
   </si>
@@ -1686,7 +1686,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1711,6 +1711,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2025,15 +2037,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
@@ -3109,186 +3121,206 @@
         <v>235</v>
       </c>
     </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E42" s="5"/>
+    </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+      <c r="A43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B43" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" t="s">
-        <v>72</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>279</v>
+      <c r="E43" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44" t="s">
         <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
         <v>72</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B45" t="s">
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
         <v>72</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>4</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="4">
-        <v>5.335</v>
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s">
+        <v>72</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="F46" t="s">
-        <v>452</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>5</v>
-      </c>
-      <c r="B47" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" t="s">
-        <v>72</v>
+        <v>4</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="4">
+        <v>5.335</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>282</v>
+        <v>250</v>
+      </c>
+      <c r="F47" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D48" t="s">
         <v>72</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B49" t="s">
         <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D49" t="s">
         <v>72</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D50" t="s">
         <v>72</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>198</v>
+        <v>33</v>
       </c>
       <c r="D51" t="s">
         <v>72</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
+        <v>9</v>
+      </c>
+      <c r="B52" t="s">
+        <v>204</v>
+      </c>
+      <c r="C52" t="s">
+        <v>198</v>
+      </c>
+      <c r="D52" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
         <v>10</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>51</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>41</v>
       </c>
-      <c r="D52">
+      <c r="D53">
         <v>4.9749999999999996</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E53" s="5" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E53" s="5"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="E56" s="4"/>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E54" s="5"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="E57" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3298,10 +3330,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4505,213 +4537,233 @@
         <v>236</v>
       </c>
     </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E42" s="5"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+    </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>1</v>
-      </c>
-      <c r="B43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" t="s">
-        <v>72</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>329</v>
+      <c r="B43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44" t="s">
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D44" t="s">
         <v>72</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B45" t="s">
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>156</v>
+        <v>59</v>
       </c>
       <c r="D45" t="s">
         <v>72</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D46" t="s">
         <v>72</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B47" t="s">
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D47" t="s">
         <v>72</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D48" t="s">
         <v>72</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B49" t="s">
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D49" t="s">
         <v>72</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D50" t="s">
         <v>72</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="D51" t="s">
         <v>72</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>204</v>
+        <v>49</v>
       </c>
       <c r="C52" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="D52" t="s">
         <v>72</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="C53" t="s">
-        <v>222</v>
-      </c>
-      <c r="D53">
-        <v>5.6470000000000002</v>
+        <v>193</v>
+      </c>
+      <c r="D53" t="s">
+        <v>72</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="F53" t="s">
-        <v>534</v>
+        <v>338</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
+        <v>221</v>
+      </c>
+      <c r="C54" t="s">
+        <v>222</v>
+      </c>
+      <c r="D54">
+        <v>5.6470000000000002</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="F54" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
         <v>12</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>214</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>196</v>
       </c>
-      <c r="D54">
+      <c r="D55">
         <v>5.742</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E55" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F55" t="s">
         <v>529</v>
       </c>
     </row>
@@ -4726,36 +4778,37 @@
   <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="8" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="8" style="12" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="12" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="13" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -4764,7 +4817,7 @@
       <c r="C2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="12">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -4772,7 +4825,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -4781,7 +4834,7 @@
       <c r="C3" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="12">
         <v>2</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -4789,7 +4842,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -4798,7 +4851,7 @@
       <c r="C4" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="12">
         <v>2</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -4806,7 +4859,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -4815,7 +4868,7 @@
       <c r="C5" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="12">
         <v>2</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -4823,7 +4876,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -4832,7 +4885,7 @@
       <c r="C6" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="12">
         <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -4840,7 +4893,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -4849,7 +4902,7 @@
       <c r="C7" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="12">
         <v>2</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -4857,7 +4910,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -4866,7 +4919,7 @@
       <c r="C8" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="12">
         <v>2</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -4874,7 +4927,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="12">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -4883,7 +4936,7 @@
       <c r="C9" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="12">
         <v>2</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -4891,7 +4944,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -4900,7 +4953,7 @@
       <c r="C10" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="12">
         <v>2</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -4908,7 +4961,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -4917,7 +4970,7 @@
       <c r="C11" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="12">
         <v>2</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -4925,7 +4978,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -4934,7 +4987,7 @@
       <c r="C12" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="12">
         <v>2</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -4942,7 +4995,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="12">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -4951,7 +5004,7 @@
       <c r="C13" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="12">
         <v>2</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -4959,7 +5012,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="12">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -4968,7 +5021,7 @@
       <c r="C14" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="12">
         <v>2</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -4976,7 +5029,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="12">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -4985,7 +5038,7 @@
       <c r="C15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="12">
         <v>2</v>
       </c>
       <c r="E15" s="11" t="s">
@@ -4996,7 +5049,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="12">
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -5005,7 +5058,7 @@
       <c r="C16" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="12">
         <v>2</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -5013,7 +5066,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="12">
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -5022,7 +5075,7 @@
       <c r="C17" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="12">
         <v>2</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -5030,7 +5083,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="12">
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -5039,7 +5092,7 @@
       <c r="C18" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="12">
         <v>2</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -5047,7 +5100,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="12">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -5056,7 +5109,7 @@
       <c r="C19" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="12">
         <v>2</v>
       </c>
       <c r="E19" s="5" t="s">
@@ -5064,7 +5117,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="12">
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -5073,7 +5126,7 @@
       <c r="C20" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="12">
         <v>2</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -5081,7 +5134,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="12">
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -5090,7 +5143,7 @@
       <c r="C21" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="12">
         <v>2</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -5098,7 +5151,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="12">
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -5107,7 +5160,7 @@
       <c r="C22" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="12">
         <v>2</v>
       </c>
       <c r="E22" s="5" t="s">
@@ -5115,7 +5168,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="12">
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -5124,7 +5177,7 @@
       <c r="C23" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="12">
         <v>2</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -5132,7 +5185,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" s="12">
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -5141,7 +5194,7 @@
       <c r="C24" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="12">
         <v>2</v>
       </c>
       <c r="E24" s="5" t="s">
@@ -5149,7 +5202,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="A25" s="12">
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -5158,7 +5211,7 @@
       <c r="C25" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="12">
         <v>2</v>
       </c>
       <c r="E25" s="5" t="s">
@@ -5166,7 +5219,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="A26" s="12">
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -5175,7 +5228,7 @@
       <c r="C26" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="12">
         <v>2</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -5183,7 +5236,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="A27" s="12">
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -5192,7 +5245,7 @@
       <c r="C27" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="12">
         <v>2</v>
       </c>
       <c r="E27" s="5" t="s">
@@ -5200,7 +5253,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="A28" s="12">
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -5209,7 +5262,7 @@
       <c r="C28" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="12">
         <v>2</v>
       </c>
       <c r="E28" s="5" t="s">
@@ -5217,7 +5270,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="A29" s="12">
         <v>28</v>
       </c>
       <c r="B29" t="s">
@@ -5226,7 +5279,7 @@
       <c r="C29" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="12">
         <v>2</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -5234,7 +5287,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="A30" s="12">
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -5243,7 +5296,7 @@
       <c r="C30" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="12">
         <v>2</v>
       </c>
       <c r="E30" s="5" t="s">
@@ -5251,7 +5304,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="A31" s="12">
         <v>30</v>
       </c>
       <c r="B31" t="s">
@@ -5260,7 +5313,7 @@
       <c r="C31" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="12">
         <v>2</v>
       </c>
       <c r="E31" s="5" t="s">
@@ -5268,7 +5321,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="A32" s="12">
         <v>31</v>
       </c>
       <c r="B32" t="s">
@@ -5277,7 +5330,7 @@
       <c r="C32" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="12">
         <v>2</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -5285,7 +5338,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="A33" s="12">
         <v>32</v>
       </c>
       <c r="B33" t="s">
@@ -5294,7 +5347,7 @@
       <c r="C33" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="12">
         <v>2</v>
       </c>
       <c r="E33" s="5" t="s">
@@ -5302,7 +5355,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="A34" s="12">
         <v>33</v>
       </c>
       <c r="B34" t="s">
@@ -5311,7 +5364,7 @@
       <c r="C34" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="12">
         <v>2</v>
       </c>
       <c r="E34" s="5" t="s">
@@ -5319,7 +5372,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="A35" s="12">
         <v>34</v>
       </c>
       <c r="B35" t="s">
@@ -5328,7 +5381,7 @@
       <c r="C35" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="12">
         <v>2</v>
       </c>
       <c r="E35" s="5" t="s">
@@ -5336,7 +5389,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="A36" s="12">
         <v>35</v>
       </c>
       <c r="B36" t="s">
@@ -5345,7 +5398,7 @@
       <c r="C36" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="12">
         <v>2</v>
       </c>
       <c r="E36" s="5" t="s">
@@ -5353,7 +5406,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="A37" s="12">
         <v>36</v>
       </c>
       <c r="B37" t="s">
@@ -5362,7 +5415,7 @@
       <c r="C37" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="12">
         <v>2</v>
       </c>
       <c r="E37" s="5" t="s">
@@ -5370,7 +5423,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="A38" s="12">
         <v>37</v>
       </c>
       <c r="B38" t="s">
@@ -5379,7 +5432,7 @@
       <c r="C38" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="12">
         <v>2</v>
       </c>
       <c r="E38" s="5" t="s">
@@ -5387,7 +5440,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="A39" s="12">
         <v>38</v>
       </c>
       <c r="B39" t="s">
@@ -5396,7 +5449,7 @@
       <c r="C39" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="12">
         <v>2</v>
       </c>
       <c r="E39" s="5" t="s">
@@ -5404,7 +5457,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="A40" s="12">
         <v>39</v>
       </c>
       <c r="B40" t="s">
@@ -5413,7 +5466,7 @@
       <c r="C40" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="12">
         <v>2</v>
       </c>
       <c r="E40" s="5" t="s">
@@ -5421,7 +5474,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="A41" s="12">
         <v>40</v>
       </c>
       <c r="B41" t="s">
@@ -5430,7 +5483,7 @@
       <c r="C41" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="12">
         <v>2</v>
       </c>
       <c r="E41" s="5" t="s">
@@ -5441,7 +5494,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="A43" s="12">
         <v>1</v>
       </c>
       <c r="B43" t="s">
@@ -5450,7 +5503,7 @@
       <c r="C43" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="12">
         <v>2</v>
       </c>
       <c r="E43" t="s">
@@ -5458,7 +5511,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="A44" s="12">
         <v>2</v>
       </c>
       <c r="B44" t="s">
@@ -5467,7 +5520,7 @@
       <c r="C44" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="12">
         <v>2</v>
       </c>
       <c r="E44" t="s">
@@ -5475,7 +5528,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="A45" s="12">
         <v>3</v>
       </c>
       <c r="B45" t="s">
@@ -5484,7 +5537,7 @@
       <c r="C45" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="12">
         <v>2</v>
       </c>
       <c r="E45" s="5" t="s">
@@ -5492,7 +5545,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="A46" s="12">
         <v>4</v>
       </c>
       <c r="B46" t="s">
@@ -5501,7 +5554,7 @@
       <c r="C46" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="12">
         <v>2</v>
       </c>
       <c r="E46" s="5" t="s">
@@ -5509,7 +5562,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="A47" s="12">
         <v>5</v>
       </c>
       <c r="B47" t="s">
@@ -5518,7 +5571,7 @@
       <c r="C47" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="12">
         <v>2</v>
       </c>
       <c r="E47" s="5" t="s">
@@ -5526,7 +5579,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="A48" s="12">
         <v>6</v>
       </c>
       <c r="B48" t="s">
@@ -5535,7 +5588,7 @@
       <c r="C48" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="12">
         <v>2</v>
       </c>
       <c r="E48" t="s">
@@ -5543,7 +5596,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="A49" s="12">
         <v>7</v>
       </c>
       <c r="B49" t="s">
@@ -5552,7 +5605,7 @@
       <c r="C49" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="12">
         <v>2</v>
       </c>
       <c r="E49" t="s">
@@ -5560,7 +5613,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="A50" s="12">
         <v>8</v>
       </c>
       <c r="B50" t="s">
@@ -5569,7 +5622,7 @@
       <c r="C50" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="12">
         <v>2</v>
       </c>
       <c r="E50" t="s">
@@ -5577,7 +5630,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="A51" s="12">
         <v>9</v>
       </c>
       <c r="B51" t="s">
@@ -5586,7 +5639,7 @@
       <c r="C51" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="12">
         <v>2</v>
       </c>
       <c r="E51" t="s">
@@ -5594,7 +5647,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="A52" s="12">
         <v>10</v>
       </c>
       <c r="B52" t="s">
@@ -5603,7 +5656,7 @@
       <c r="C52" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="12">
         <v>2</v>
       </c>
       <c r="E52" t="s">
@@ -5611,7 +5664,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53">
+      <c r="A53" s="12">
         <v>11</v>
       </c>
       <c r="B53" t="s">
@@ -5620,7 +5673,7 @@
       <c r="C53" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="12">
         <v>2</v>
       </c>
       <c r="E53" t="s">
@@ -5628,7 +5681,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="A54" s="12">
         <v>12</v>
       </c>
       <c r="B54" t="s">
@@ -5637,7 +5690,7 @@
       <c r="C54" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="12">
         <v>2</v>
       </c>
       <c r="E54" s="5" t="s">
@@ -5645,7 +5698,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55">
+      <c r="A55" s="12">
         <v>13</v>
       </c>
       <c r="B55" t="s">
@@ -5654,7 +5707,7 @@
       <c r="C55" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="12">
         <v>2</v>
       </c>
       <c r="E55" s="5" t="s">
@@ -5662,7 +5715,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="A56" s="12">
         <v>14</v>
       </c>
       <c r="B56" t="s">
@@ -5671,7 +5724,7 @@
       <c r="C56" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="12">
         <v>2</v>
       </c>
       <c r="E56" s="5" t="s">
@@ -5679,7 +5732,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57">
+      <c r="A57" s="12">
         <v>15</v>
       </c>
       <c r="B57" t="s">
@@ -5688,7 +5741,7 @@
       <c r="C57" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="12">
         <v>2</v>
       </c>
       <c r="E57" s="5" t="s">
@@ -5701,8 +5754,25 @@
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E58" s="5"/>
     </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="A60" s="12">
         <v>1</v>
       </c>
       <c r="B60" t="s">
@@ -5711,7 +5781,7 @@
       <c r="C60" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="12">
         <v>3</v>
       </c>
       <c r="E60" t="s">
@@ -5719,7 +5789,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="A61" s="12">
         <v>2</v>
       </c>
       <c r="B61" t="s">
@@ -5728,7 +5798,7 @@
       <c r="C61" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="12">
         <v>3</v>
       </c>
       <c r="E61" t="s">
@@ -5736,7 +5806,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="A62" s="12">
         <v>3</v>
       </c>
       <c r="B62" t="s">
@@ -5745,7 +5815,7 @@
       <c r="C62" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="12">
         <v>3</v>
       </c>
       <c r="E62" t="s">
@@ -5753,7 +5823,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63">
+      <c r="A63" s="12">
         <v>4</v>
       </c>
       <c r="B63" t="s">
@@ -5762,7 +5832,7 @@
       <c r="C63" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="12">
         <v>3</v>
       </c>
       <c r="E63" t="s">
@@ -5770,7 +5840,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64">
+      <c r="A64" s="12">
         <v>5</v>
       </c>
       <c r="B64" t="s">
@@ -5779,15 +5849,15 @@
       <c r="C64" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="12">
         <v>3</v>
       </c>
       <c r="E64" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="12">
         <v>6</v>
       </c>
       <c r="B65" t="s">
@@ -5796,15 +5866,15 @@
       <c r="C65" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="12">
         <v>3</v>
       </c>
       <c r="E65" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="12">
         <v>7</v>
       </c>
       <c r="B66" t="s">
@@ -5813,15 +5883,15 @@
       <c r="C66" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="12">
         <v>3</v>
       </c>
       <c r="E66" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="12">
         <v>8</v>
       </c>
       <c r="B67" t="s">
@@ -5830,15 +5900,15 @@
       <c r="C67" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="12">
         <v>3</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="12">
         <v>9</v>
       </c>
       <c r="B68" t="s">
@@ -5847,15 +5917,15 @@
       <c r="C68" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="12">
         <v>3</v>
       </c>
       <c r="E68" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="12">
         <v>10</v>
       </c>
       <c r="B69" t="s">
@@ -5864,15 +5934,15 @@
       <c r="C69" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="12">
         <v>3</v>
       </c>
       <c r="E69" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="12">
         <v>11</v>
       </c>
       <c r="B70" t="s">
@@ -5881,15 +5951,15 @@
       <c r="C70" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="12">
         <v>3</v>
       </c>
       <c r="E70" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="12">
         <v>12</v>
       </c>
       <c r="B71" t="s">
@@ -5898,15 +5968,15 @@
       <c r="C71" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="12">
         <v>3</v>
       </c>
       <c r="E71" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="12">
         <v>13</v>
       </c>
       <c r="B72" t="s">
@@ -5915,15 +5985,15 @@
       <c r="C72" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="12">
         <v>3</v>
       </c>
       <c r="E72" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="12">
         <v>14</v>
       </c>
       <c r="B73" t="s">
@@ -5932,15 +6002,15 @@
       <c r="C73" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="12">
         <v>3</v>
       </c>
       <c r="E73" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="12">
         <v>15</v>
       </c>
       <c r="B74" t="s">
@@ -5949,15 +6019,15 @@
       <c r="C74" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="12">
         <v>3</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="12">
         <v>16</v>
       </c>
       <c r="B75" t="s">
@@ -5966,15 +6036,15 @@
       <c r="C75" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="12">
         <v>3</v>
       </c>
       <c r="E75" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="12">
         <v>17</v>
       </c>
       <c r="B76" t="s">
@@ -5983,361 +6053,361 @@
       <c r="C76" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="12">
         <v>3</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="12">
         <v>18</v>
       </c>
       <c r="B77" t="s">
         <v>50</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D77">
+        <v>75</v>
+      </c>
+      <c r="D77" s="12">
         <v>3</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78">
+        <v>448</v>
+      </c>
+      <c r="F77">
+        <v>6.3540000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="12">
         <v>19</v>
       </c>
       <c r="B78" t="s">
         <v>50</v>
       </c>
       <c r="C78" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D78" s="12">
+        <v>3</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="12">
+        <v>20</v>
+      </c>
+      <c r="B79" t="s">
+        <v>50</v>
+      </c>
+      <c r="C79" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D78">
+      <c r="D79" s="12">
         <v>3</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="E79" s="5" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>20</v>
-      </c>
-      <c r="B79" t="s">
-        <v>51</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D79">
-        <v>3</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="12">
         <v>21</v>
       </c>
       <c r="B80" t="s">
         <v>51</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D80">
+        <v>145</v>
+      </c>
+      <c r="D80" s="12">
         <v>3</v>
       </c>
-      <c r="E80" t="s">
-        <v>433</v>
+      <c r="E80" s="5" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81">
+      <c r="A81" s="12">
         <v>22</v>
       </c>
       <c r="B81" t="s">
         <v>51</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D81">
+        <v>146</v>
+      </c>
+      <c r="D81" s="12">
         <v>3</v>
       </c>
       <c r="E81" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82">
+      <c r="A82" s="12">
         <v>23</v>
       </c>
       <c r="B82" t="s">
         <v>51</v>
       </c>
       <c r="C82" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D82" s="12">
+        <v>3</v>
+      </c>
+      <c r="E82" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="12">
+        <v>24</v>
+      </c>
+      <c r="B83" t="s">
+        <v>51</v>
+      </c>
+      <c r="C83" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D82">
+      <c r="D83" s="12">
         <v>3</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E83" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>24</v>
-      </c>
-      <c r="B83" t="s">
-        <v>204</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D83">
-        <v>3</v>
-      </c>
-      <c r="E83" t="s">
-        <v>436</v>
-      </c>
-    </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84">
+      <c r="A84" s="12">
         <v>25</v>
       </c>
       <c r="B84" t="s">
         <v>204</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D84">
+        <v>165</v>
+      </c>
+      <c r="D84" s="12">
         <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85">
+      <c r="A85" s="12">
         <v>26</v>
       </c>
       <c r="B85" t="s">
         <v>204</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="D85">
+        <v>166</v>
+      </c>
+      <c r="D85" s="12">
         <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86">
+      <c r="A86" s="12">
         <v>27</v>
       </c>
       <c r="B86" t="s">
         <v>204</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D86">
+        <v>168</v>
+      </c>
+      <c r="D86" s="12">
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87">
+      <c r="A87" s="12">
         <v>28</v>
       </c>
       <c r="B87" t="s">
         <v>204</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D87">
+        <v>170</v>
+      </c>
+      <c r="D87" s="12">
         <v>3</v>
       </c>
-      <c r="E87" s="5" t="s">
-        <v>440</v>
+      <c r="E87" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88">
+      <c r="A88" s="12">
         <v>29</v>
       </c>
       <c r="B88" t="s">
         <v>204</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D88">
+        <v>178</v>
+      </c>
+      <c r="D88" s="12">
         <v>3</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89">
+      <c r="A89" s="12">
         <v>30</v>
       </c>
       <c r="B89" t="s">
         <v>204</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="D89">
+        <v>179</v>
+      </c>
+      <c r="D89" s="12">
         <v>3</v>
       </c>
-      <c r="E89" t="s">
-        <v>442</v>
+      <c r="E89" s="5" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90">
+      <c r="A90" s="12">
         <v>31</v>
       </c>
       <c r="B90" t="s">
         <v>204</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="D90">
+        <v>182</v>
+      </c>
+      <c r="D90" s="12">
         <v>3</v>
       </c>
       <c r="E90" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91">
+      <c r="A91" s="12">
         <v>32</v>
       </c>
       <c r="B91" t="s">
         <v>204</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="D91">
+        <v>190</v>
+      </c>
+      <c r="D91" s="12">
         <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92">
+      <c r="A92" s="12">
         <v>33</v>
       </c>
       <c r="B92" t="s">
         <v>204</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="D92">
+        <v>191</v>
+      </c>
+      <c r="D92" s="12">
         <v>3</v>
       </c>
       <c r="E92" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93">
+      <c r="A93" s="12">
         <v>34</v>
       </c>
       <c r="B93" t="s">
         <v>204</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="D93">
+        <v>192</v>
+      </c>
+      <c r="D93" s="12">
         <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94">
+      <c r="A94" s="12">
         <v>35</v>
       </c>
       <c r="B94" t="s">
         <v>204</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="D94">
+        <v>203</v>
+      </c>
+      <c r="D94" s="12">
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="12">
         <v>36</v>
       </c>
       <c r="B95" t="s">
         <v>204</v>
       </c>
       <c r="C95" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D95" s="12">
+        <v>3</v>
+      </c>
+      <c r="E95" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="12">
+        <v>37</v>
+      </c>
+      <c r="B96" t="s">
+        <v>204</v>
+      </c>
+      <c r="C96" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="D95">
+      <c r="D96" s="12">
         <v>3</v>
       </c>
-      <c r="E95" s="5" t="s">
+      <c r="E96" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="F95">
+      <c r="F96">
         <v>3.3380000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>37</v>
-      </c>
-      <c r="B96" t="s">
-        <v>50</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D96">
-        <v>3</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="F96">
-        <v>6.3540000000000001</v>
-      </c>
-    </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97">
+      <c r="A97" s="12">
         <v>38</v>
       </c>
       <c r="B97" t="s">
@@ -6346,7 +6416,7 @@
       <c r="C97" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="12">
         <v>3</v>
       </c>
       <c r="E97" s="5" t="s">
@@ -6357,7 +6427,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98">
+      <c r="A98" s="12">
         <v>39</v>
       </c>
       <c r="B98" t="s">
@@ -6366,7 +6436,7 @@
       <c r="C98" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="12">
         <v>3</v>
       </c>
       <c r="E98" s="5" t="s">
@@ -6377,7 +6447,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99">
+      <c r="A99" s="12">
         <v>40</v>
       </c>
       <c r="B99" t="s">
@@ -6386,7 +6456,7 @@
       <c r="C99" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="12">
         <v>3</v>
       </c>
       <c r="E99" s="5" t="s">
@@ -6397,7 +6467,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104">
+      <c r="A104" s="12">
         <v>1</v>
       </c>
       <c r="B104" t="s">
@@ -6406,7 +6476,7 @@
       <c r="C104" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D104" s="4">
+      <c r="D104" s="14">
         <v>4</v>
       </c>
       <c r="E104" s="4" t="s">
@@ -6414,7 +6484,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105">
+      <c r="A105" s="12">
         <v>2</v>
       </c>
       <c r="B105" t="s">
@@ -6423,7 +6493,7 @@
       <c r="C105" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="12">
         <v>4</v>
       </c>
       <c r="E105" t="s">
@@ -6431,7 +6501,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106">
+      <c r="A106" s="12">
         <v>3</v>
       </c>
       <c r="B106" t="s">
@@ -6440,7 +6510,7 @@
       <c r="C106" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="12">
         <v>4</v>
       </c>
       <c r="E106" t="s">
@@ -6448,7 +6518,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107">
+      <c r="A107" s="12">
         <v>4</v>
       </c>
       <c r="B107" t="s">
@@ -6457,7 +6527,7 @@
       <c r="C107" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="12">
         <v>4</v>
       </c>
       <c r="E107" t="s">
@@ -6465,7 +6535,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108">
+      <c r="A108" s="12">
         <v>5</v>
       </c>
       <c r="B108" t="s">
@@ -6474,7 +6544,7 @@
       <c r="C108" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="12">
         <v>4</v>
       </c>
       <c r="E108" t="s">
@@ -6482,7 +6552,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109">
+      <c r="A109" s="12">
         <v>6</v>
       </c>
       <c r="B109" t="s">
@@ -6491,7 +6561,7 @@
       <c r="C109" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="12">
         <v>4</v>
       </c>
       <c r="E109" t="s">
@@ -6499,7 +6569,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110">
+      <c r="A110" s="12">
         <v>7</v>
       </c>
       <c r="B110" t="s">
@@ -6508,7 +6578,7 @@
       <c r="C110" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="12">
         <v>4</v>
       </c>
       <c r="E110" t="s">
@@ -6516,7 +6586,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111">
+      <c r="A111" s="12">
         <v>8</v>
       </c>
       <c r="B111" t="s">
@@ -6525,7 +6595,7 @@
       <c r="C111" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="12">
         <v>4</v>
       </c>
       <c r="E111" s="5" t="s">
@@ -6533,7 +6603,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112">
+      <c r="A112" s="12">
         <v>9</v>
       </c>
       <c r="B112" t="s">
@@ -6542,7 +6612,7 @@
       <c r="C112" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="12">
         <v>4</v>
       </c>
       <c r="E112" t="s">
@@ -6550,7 +6620,7 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113">
+      <c r="A113" s="12">
         <v>10</v>
       </c>
       <c r="B113" t="s">
@@ -6559,7 +6629,7 @@
       <c r="C113" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="12">
         <v>4</v>
       </c>
       <c r="E113" t="s">
@@ -6567,7 +6637,7 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114">
+      <c r="A114" s="12">
         <v>11</v>
       </c>
       <c r="B114" t="s">
@@ -6576,7 +6646,7 @@
       <c r="C114" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="12">
         <v>4</v>
       </c>
       <c r="E114" t="s">
@@ -6584,7 +6654,7 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115">
+      <c r="A115" s="12">
         <v>12</v>
       </c>
       <c r="B115" t="s">
@@ -6593,7 +6663,7 @@
       <c r="C115" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="12">
         <v>4</v>
       </c>
       <c r="E115" t="s">
@@ -6601,7 +6671,7 @@
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116">
+      <c r="A116" s="12">
         <v>13</v>
       </c>
       <c r="B116" t="s">
@@ -6610,7 +6680,7 @@
       <c r="C116" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="12">
         <v>4</v>
       </c>
       <c r="E116" s="5" t="s">
@@ -6618,7 +6688,7 @@
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117">
+      <c r="A117" s="12">
         <v>14</v>
       </c>
       <c r="B117" t="s">
@@ -6627,7 +6697,7 @@
       <c r="C117" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="12">
         <v>4</v>
       </c>
       <c r="E117" t="s">
@@ -6635,7 +6705,7 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118">
+      <c r="A118" s="12">
         <v>15</v>
       </c>
       <c r="B118" t="s">
@@ -6644,7 +6714,7 @@
       <c r="C118" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="12">
         <v>4</v>
       </c>
       <c r="E118" t="s">
@@ -6652,7 +6722,7 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119">
+      <c r="A119" s="12">
         <v>16</v>
       </c>
       <c r="B119" t="s">
@@ -6661,7 +6731,7 @@
       <c r="C119" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="12">
         <v>4</v>
       </c>
       <c r="E119" t="s">
@@ -6669,7 +6739,7 @@
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120">
+      <c r="A120" s="12">
         <v>17</v>
       </c>
       <c r="B120" t="s">
@@ -6678,7 +6748,7 @@
       <c r="C120" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="12">
         <v>4</v>
       </c>
       <c r="E120" t="s">
@@ -6686,7 +6756,7 @@
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121">
+      <c r="A121" s="12">
         <v>18</v>
       </c>
       <c r="B121" t="s">
@@ -6695,7 +6765,7 @@
       <c r="C121" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="12">
         <v>4</v>
       </c>
       <c r="E121" t="s">
